--- a/biology/Zoologie/Cedarosaurus/Cedarosaurus.xlsx
+++ b/biology/Zoologie/Cedarosaurus/Cedarosaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cedarosaurus weiskopfae
 Cedarosaurus est un genre fossile de dinosaures du Crétacé inférieur qui vivait il y a 125 millions d'années aux États-Unis. Ce brachiosauridé mesurait plus de 20 mètres. Ce genre n'est représenté que par une seule espèce, Cedarosaurus weiskopfae.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Cedarosaurus, selon les restes fossiles, devait vivre en groupe. Les fossiles ont été découvert dans l'Utah[1],[2], mais il est probable que son air de répartition ait été plus vaste. Les jeunes étaient la proie d'Utahraptor.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Cedarosaurus, selon les restes fossiles, devait vivre en groupe. Les fossiles ont été découvert dans l'Utah mais il est probable que son air de répartition ait été plus vaste. Les jeunes étaient la proie d'Utahraptor.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (12 avril 2020)[3] :
-Cedarosaurus weiskopfae Tidwell, Carpenter &amp; Brooks, 1999 †[2]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (12 avril 2020) :
+Cedarosaurus weiskopfae Tidwell, Carpenter &amp; Brooks, 1999 †</t>
         </is>
       </c>
     </row>
@@ -574,10 +590,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Cedarosaurus, composé de Cedar et du latin saurus, « lézard », doit son nom à la formation de Cedar Mountain, une formation géologique de l'Utah (États-Unis)[2].
-Son nom spécifique, weiskopfae, lui a été donné en l'honneur de Carol Weiskopf pour son travail intense tant sur le terrain qu'au laboratoire[2]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Cedarosaurus, composé de Cedar et du latin saurus, « lézard », doit son nom à la formation de Cedar Mountain, une formation géologique de l'Utah (États-Unis).
+Son nom spécifique, weiskopfae, lui a été donné en l'honneur de Carol Weiskopf pour son travail intense tant sur le terrain qu'au laboratoire. 
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Dans les médias et la culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est présentée dans un documentaire tout public intitulé "Dinosaures, s'adapter ou mourir".
 </t>
